--- a/workflow-rest/src/test/resources/css/customer-self-service-with-db.xlsx
+++ b/workflow-rest/src/test/resources/css/customer-self-service-with-db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\September-release\microservices-lowcode-testautomation\src\test\resources\css\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\2022\jan-release\microservices-lowcode-testautomation\workflow-rest\src\test\resources\css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89F0D0F-2326-4928-BE2A-3C6CB34B1463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC9C12E-DEC5-41E9-83F6-8FA48ED520ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
   </bookViews>
   <sheets>
     <sheet name="CSS-Accept-DB" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="68">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -253,9 +253,6 @@
     <t>SELECT</t>
   </si>
   <si>
-    <t>Read Quote information</t>
-  </si>
-  <si>
     <t>select iqr.id, iq.insurance_premium_amount, iq.insurance_premium_currency, iq.policy_limit_amount from insurancequotes iq INNER JOIN insurancequoterequests iqr on iq.id = iqr.insurance_quote_id and iqr.id  =  [quoteId]</t>
   </si>
   <si>
@@ -308,6 +305,12 @@
         "currency": "CHF"
     }
 }</t>
+  </si>
+  <si>
+    <t>as a insurance user;login;content type;login information;logging in using;user email information;</t>
+  </si>
+  <si>
+    <t>Read information</t>
   </si>
 </sst>
 </file>
@@ -596,7 +599,21 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="36">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1167,45 +1184,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D2DC3DC4-786B-455B-AC31-440CB4CE2386}" name="Table13" displayName="Table13" ref="A1:N8" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D2DC3DC4-786B-455B-AC31-440CB4CE2386}" name="Table13" displayName="Table13" ref="A1:N8" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
   <autoFilter ref="A1:N8" xr:uid="{9ED465CD-F594-48A9-8196-5FC7750F944C}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{2529773C-869E-4BF0-BA40-3C63A1B9C82E}" name="TestCaseName" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{38B39313-4971-4AB8-90FF-17FEEBD272E2}" name="Type" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{6C299A48-4F91-4ADF-9FA5-2A61A0CB5BD4}" name="Resource" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{45BB3847-D624-4423-871B-B3B36D7775E0}" name="TestCaseNameDesc" dataDxfId="27"/>
-    <tableColumn id="14" xr3:uid="{81A6868C-FA66-4403-BDB9-3B37B82CFD8B}" name="StepInfo" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{86E03ED2-22E0-4F18-BA1B-F3DFADBDAC3D}" name="URL" dataDxfId="25" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{C173B7A0-5E7D-4643-A6DA-076F9490CB68}" name="Action" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{BB259141-ABF2-42DC-85C2-E5CACF2AC48B}" name="ContentType" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{0418BA09-F5F1-4A7C-A239-86F5ECC68B43}" name="StatusCode" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{1FB97D06-8CD1-4487-8202-DCACC7F29382}" name="RequestHeaders" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{83D78877-EB11-4987-BC47-353E42434923}" name="RequestContent" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{6F094F56-A9C6-46ED-9973-53022E81C107}" name="ResponseByFields" dataDxfId="19" dataCellStyle="Hyperlink"/>
-    <tableColumn id="11" xr3:uid="{20217874-188E-4455-8267-C7FF88CCF0D3}" name="StoreResponseVariables" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{F821C116-85DC-417F-A9F1-CE1E2EC0CF08}" name="Csvson" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{2529773C-869E-4BF0-BA40-3C63A1B9C82E}" name="TestCaseName" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{38B39313-4971-4AB8-90FF-17FEEBD272E2}" name="Type" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{6C299A48-4F91-4ADF-9FA5-2A61A0CB5BD4}" name="Resource" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{45BB3847-D624-4423-871B-B3B36D7775E0}" name="TestCaseNameDesc" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{81A6868C-FA66-4403-BDB9-3B37B82CFD8B}" name="StepInfo" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{86E03ED2-22E0-4F18-BA1B-F3DFADBDAC3D}" name="URL" dataDxfId="26" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" xr3:uid="{C173B7A0-5E7D-4643-A6DA-076F9490CB68}" name="Action" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{BB259141-ABF2-42DC-85C2-E5CACF2AC48B}" name="ContentType" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{0418BA09-F5F1-4A7C-A239-86F5ECC68B43}" name="StatusCode" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{1FB97D06-8CD1-4487-8202-DCACC7F29382}" name="RequestHeaders" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{83D78877-EB11-4987-BC47-353E42434923}" name="RequestContent" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{6F094F56-A9C6-46ED-9973-53022E81C107}" name="ResponseByFields" dataDxfId="20" dataCellStyle="Hyperlink"/>
+    <tableColumn id="11" xr3:uid="{20217874-188E-4455-8267-C7FF88CCF0D3}" name="StoreResponseVariables" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{F821C116-85DC-417F-A9F1-CE1E2EC0CF08}" name="Csvson" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9ED465CD-F594-48A9-8196-5FC7750F944C}" name="Table1" displayName="Table1" ref="A1:M7" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="A1:M7" xr:uid="{9ED465CD-F594-48A9-8196-5FC7750F944C}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{44E9C209-0829-4608-A562-A853364EDCA9}" name="TestCaseName" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{464049FF-A241-416D-81E2-D042C77E613D}" name="Type" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{41CFEFB5-53E0-4032-A5D9-1D5CD83C9088}" name="Resource" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{68FA4253-D22C-4F9E-9642-1CE7DA46F6CD}" name="TestCaseNameDesc" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{38DFC232-AD32-4518-BBE9-0E81FA65D158}" name="URL" dataDxfId="8" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{5E0D29DA-C437-477D-80B1-084D6FFDA7D0}" name="Action" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{D521624D-A30C-4903-8753-308DB96CC468}" name="ContentType" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{7ABEA6AA-5DB7-4844-8FE7-5BAA2D97A021}" name="StatusCode" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{CEDD7D6B-A15B-4573-AE56-06BD0C005478}" name="RequestHeaders" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{A354B51F-EA84-4362-AAF3-573124DE42F7}" name="RequestContent" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{231F76A7-ADF1-4065-9B23-160CE53A174D}" name="ResponseByFields" dataDxfId="2" dataCellStyle="Hyperlink"/>
-    <tableColumn id="11" xr3:uid="{815D92F3-6CC4-4225-9A76-C629D21D7EAB}" name="StoreResponseVariables" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{04967956-35B1-4A68-866E-3ACD6FB9209E}" name="Csvson" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9ED465CD-F594-48A9-8196-5FC7750F944C}" name="Table1" displayName="Table1" ref="A1:N7" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A1:N7" xr:uid="{9ED465CD-F594-48A9-8196-5FC7750F944C}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{44E9C209-0829-4608-A562-A853364EDCA9}" name="TestCaseName" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{464049FF-A241-416D-81E2-D042C77E613D}" name="Type" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{41CFEFB5-53E0-4032-A5D9-1D5CD83C9088}" name="Resource" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{68FA4253-D22C-4F9E-9642-1CE7DA46F6CD}" name="TestCaseNameDesc" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{4F883B81-805A-43C8-B95E-777D529346FB}" name="StepInfo" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{38DFC232-AD32-4518-BBE9-0E81FA65D158}" name="URL" dataDxfId="9" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" xr3:uid="{5E0D29DA-C437-477D-80B1-084D6FFDA7D0}" name="Action" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{D521624D-A30C-4903-8753-308DB96CC468}" name="ContentType" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{7ABEA6AA-5DB7-4844-8FE7-5BAA2D97A021}" name="StatusCode" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{CEDD7D6B-A15B-4573-AE56-06BD0C005478}" name="RequestHeaders" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{A354B51F-EA84-4362-AAF3-573124DE42F7}" name="RequestContent" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{231F76A7-ADF1-4065-9B23-160CE53A174D}" name="ResponseByFields" dataDxfId="3" dataCellStyle="Hyperlink"/>
+    <tableColumn id="11" xr3:uid="{815D92F3-6CC4-4225-9A76-C629D21D7EAB}" name="StoreResponseVariables" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{04967956-35B1-4A68-866E-3ACD6FB9209E}" name="Csvson" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1510,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87A57E5-F5BD-4861-8936-9E28488C0E70}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,10 +1595,10 @@
         <v>48</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
@@ -1593,7 +1611,9 @@
       <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
@@ -1657,7 +1677,7 @@
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -1768,7 +1788,7 @@
         <v>27</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>34</v>
@@ -1842,7 +1862,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="6" t="s">
@@ -1873,10 +1893,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558B51E2-E984-41DF-9C0A-F557E24A35FA}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,19 +1905,20 @@
     <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.5703125" customWidth="1"/>
-    <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35" customWidth="1"/>
-    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="70.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.5703125" customWidth="1"/>
+    <col min="12" max="12" width="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35" customWidth="1"/>
+    <col min="15" max="15" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1911,37 +1932,40 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>65</v>
+      <c r="O1" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
@@ -1954,32 +1978,33 @@
       <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="6">
+      <c r="I2" s="6">
         <v>200</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="9"/>
       <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
     </row>
-    <row r="3" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -1992,34 +2017,35 @@
       <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="6">
+      <c r="I3" s="6">
         <v>200</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="6"/>
+      <c r="L3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="12" t="s">
-        <v>64</v>
+      <c r="N3" s="9"/>
+      <c r="O3" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -2032,32 +2058,33 @@
       <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="6">
         <v>200</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="6"/>
+      <c r="L4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="M4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="9"/>
       <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="1:14" ht="390" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="390" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>47</v>
       </c>
@@ -2070,32 +2097,33 @@
       <c r="D5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="6">
         <v>200</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="6" t="s">
+      <c r="K5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="9"/>
       <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
     </row>
-    <row r="6" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>46</v>
       </c>
@@ -2108,32 +2136,33 @@
       <c r="D6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="6">
         <v>200</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="9"/>
+      <c r="M6" s="6"/>
       <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
@@ -2146,34 +2175,35 @@
       <c r="D7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <v>200</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="L7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="6"/>
+      <c r="N7" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>57</v>
       </c>
@@ -2186,34 +2216,35 @@
       <c r="D8" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="21" t="s">
+      <c r="E8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="19"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="19"/>
-      <c r="J8" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19" t="s">
+      <c r="J8" s="19"/>
+      <c r="K8" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{56278878-0DDC-4613-A366-2D690694DF89}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{44B29053-9940-4EAF-8AF2-5A853CA0097E}"/>
-    <hyperlink ref="K3" r:id="rId3" display="email=admin@example.com" xr:uid="{924C8EEF-8216-4237-990F-0F5500A53827}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{E21BD94E-4C02-4B13-BFB8-24DF671FBC4B}"/>
-    <hyperlink ref="K2" r:id="rId5" display="email=admin@example.com" xr:uid="{2AC9B76B-9478-4CCC-B9EE-AECB42C021D8}"/>
-    <hyperlink ref="E5" r:id="rId6" xr:uid="{9FD1DDE3-0C92-4BE4-9241-79DC041815AC}"/>
-    <hyperlink ref="E6" r:id="rId7" xr:uid="{5F09E6C4-56C4-4CC9-BF31-72583E111233}"/>
-    <hyperlink ref="E7" r:id="rId8" xr:uid="{BB9ACE82-6D2D-401D-AEDC-761999503176}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{56278878-0DDC-4613-A366-2D690694DF89}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{44B29053-9940-4EAF-8AF2-5A853CA0097E}"/>
+    <hyperlink ref="L3" r:id="rId3" display="email=admin@example.com" xr:uid="{924C8EEF-8216-4237-990F-0F5500A53827}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{E21BD94E-4C02-4B13-BFB8-24DF671FBC4B}"/>
+    <hyperlink ref="L2" r:id="rId5" display="email=admin@example.com" xr:uid="{2AC9B76B-9478-4CCC-B9EE-AECB42C021D8}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{9FD1DDE3-0C92-4BE4-9241-79DC041815AC}"/>
+    <hyperlink ref="F6" r:id="rId7" xr:uid="{5F09E6C4-56C4-4CC9-BF31-72583E111233}"/>
+    <hyperlink ref="F7" r:id="rId8" xr:uid="{BB9ACE82-6D2D-401D-AEDC-761999503176}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>

--- a/workflow-rest/src/test/resources/css/customer-self-service-with-db.xlsx
+++ b/workflow-rest/src/test/resources/css/customer-self-service-with-db.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\2022\jan-release\microservices-lowcode-testautomation\workflow-rest\src\test\resources\css\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\2022\feb-release\microservices-lowcode-testautomation\workflow-rest\src\test\resources\css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC9C12E-DEC5-41E9-83F6-8FA48ED520ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A4B1BB-4496-47B4-B019-9F31D3E4DC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
   </bookViews>
@@ -236,27 +236,53 @@
     <t>InsuranceQuoteByDB</t>
   </si>
   <si>
-    <t>select iqr.id, iq.insurance_premium_amount, iq.insurance_premium_currency, iq.policy_limit_amount from insurancequotes iq INNER JOIN insurancequoterequests iqr on iq.id = iqr.insurance_quote_id and iqr.id  =  [quoteId]
+    <t>policy_limit_amount=[0].policy_limit_amount</t>
+  </si>
+  <si>
+    <t>InsuranceQuoteByDBReject</t>
+  </si>
+  <si>
+    <t>{"email":"[email]","password":"[password]"}</t>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <t>select iqr.id, iq.insurance_premium_amount, iq.insurance_premium_currency, iq.policy_limit_amount from insurancequotes iq INNER JOIN insurancequoterequests iqr on iq.id = iqr.insurance_quote_id and iqr.id  =  [quoteId]</t>
+  </si>
+  <si>
+    <t>select iqr.id, iq.insurance_premium_amount, iq.insurance_premium_currency, iq.policy_limit_amount from insurancequotes iq INNER JOIN insurancequoterequests iqr on iq.id = iqr.insurance_quote_id and iqr.id  =  [rejectQuoteId]</t>
+  </si>
+  <si>
+    <t>expiryDate=SUBSTITUTE(TEXT(NOW()+365, "yyyy-mm-dd HH:mm:ss"), " ", "T");startDate=TEXT(TODAY(),"yyyy-mm-dd")</t>
+  </si>
+  <si>
+    <t>EvaluateFunctionVariables</t>
+  </si>
+  <si>
+    <t>{
+    "status": "QUOTE_RECEIVED",
+    "expirationDate": "[expiryDate].000Z",
+    "insurancePremium": {
+        "amount": 500,
+        "currency": "CHF"
+    },
+    "policyLimit": {
+        "amount": 50000,
+        "currency": "CHF"
+    }
+}</t>
+  </si>
+  <si>
+    <t>as a insurance user;login;content type;login information;logging in using;user email information;</t>
+  </si>
+  <si>
+    <t>Read information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 id,insurance_premium_amount, insurance_premium_currency, policy_limit_amount
 i~[quoteId],d~500.00,CHF,d~50000.00</t>
-  </si>
-  <si>
-    <t>policy_limit_amount=[0].policy_limit_amount</t>
-  </si>
-  <si>
-    <t>InsuranceQuoteByDBReject</t>
-  </si>
-  <si>
-    <t>{"email":"[email]","password":"[password]"}</t>
-  </si>
-  <si>
-    <t>SELECT</t>
-  </si>
-  <si>
-    <t>select iqr.id, iq.insurance_premium_amount, iq.insurance_premium_currency, iq.policy_limit_amount from insurancequotes iq INNER JOIN insurancequoterequests iqr on iq.id = iqr.insurance_quote_id and iqr.id  =  [quoteId]</t>
-  </si>
-  <si>
-    <t>select iqr.id, iq.insurance_premium_amount, iq.insurance_premium_currency, iq.policy_limit_amount from insurancequotes iq INNER JOIN insurancequoterequests iqr on iq.id = iqr.insurance_quote_id and iqr.id  =  [rejectQuoteId]</t>
   </si>
   <si>
     <t>{
@@ -277,7 +303,7 @@
         }
     },
     "insuranceOptions": {
-        "startDate": "2021-09-20",
+        "startDate": "[startDate]",
         "insuranceType": "Life Insurance",
         "deductible": {
             "amount": 500,
@@ -285,32 +311,6 @@
         }
     }
 }</t>
-  </si>
-  <si>
-    <t>expiryDate=SUBSTITUTE(TEXT(NOW()+365, "yyyy-mm-dd HH:mm:ss"), " ", "T");startDate=TEXT(TODAY(),"yyyy-mm-dd")</t>
-  </si>
-  <si>
-    <t>EvaluateFunctionVariables</t>
-  </si>
-  <si>
-    <t>{
-    "status": "QUOTE_RECEIVED",
-    "expirationDate": "[expiryDate].000Z",
-    "insurancePremium": {
-        "amount": 500,
-        "currency": "CHF"
-    },
-    "policyLimit": {
-        "amount": 50000,
-        "currency": "CHF"
-    }
-}</t>
-  </si>
-  <si>
-    <t>as a insurance user;login;content type;login information;logging in using;user email information;</t>
-  </si>
-  <si>
-    <t>Read information</t>
   </si>
 </sst>
 </file>
@@ -602,149 +602,149 @@
   <dxfs count="36">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1214,16 +1214,16 @@
     <tableColumn id="2" xr3:uid="{464049FF-A241-416D-81E2-D042C77E613D}" name="Type" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{41CFEFB5-53E0-4032-A5D9-1D5CD83C9088}" name="Resource" dataDxfId="11"/>
     <tableColumn id="4" xr3:uid="{68FA4253-D22C-4F9E-9642-1CE7DA46F6CD}" name="TestCaseNameDesc" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{4F883B81-805A-43C8-B95E-777D529346FB}" name="StepInfo" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{38DFC232-AD32-4518-BBE9-0E81FA65D158}" name="URL" dataDxfId="9" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{5E0D29DA-C437-477D-80B1-084D6FFDA7D0}" name="Action" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{D521624D-A30C-4903-8753-308DB96CC468}" name="ContentType" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{7ABEA6AA-5DB7-4844-8FE7-5BAA2D97A021}" name="StatusCode" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{CEDD7D6B-A15B-4573-AE56-06BD0C005478}" name="RequestHeaders" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{A354B51F-EA84-4362-AAF3-573124DE42F7}" name="RequestContent" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{231F76A7-ADF1-4065-9B23-160CE53A174D}" name="ResponseByFields" dataDxfId="3" dataCellStyle="Hyperlink"/>
-    <tableColumn id="11" xr3:uid="{815D92F3-6CC4-4225-9A76-C629D21D7EAB}" name="StoreResponseVariables" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{04967956-35B1-4A68-866E-3ACD6FB9209E}" name="Csvson" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{4F883B81-805A-43C8-B95E-777D529346FB}" name="StepInfo" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{38DFC232-AD32-4518-BBE9-0E81FA65D158}" name="URL" dataDxfId="8" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" xr3:uid="{5E0D29DA-C437-477D-80B1-084D6FFDA7D0}" name="Action" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{D521624D-A30C-4903-8753-308DB96CC468}" name="ContentType" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{7ABEA6AA-5DB7-4844-8FE7-5BAA2D97A021}" name="StatusCode" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{CEDD7D6B-A15B-4573-AE56-06BD0C005478}" name="RequestHeaders" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{A354B51F-EA84-4362-AAF3-573124DE42F7}" name="RequestContent" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{231F76A7-ADF1-4065-9B23-160CE53A174D}" name="ResponseByFields" dataDxfId="2" dataCellStyle="Hyperlink"/>
+    <tableColumn id="11" xr3:uid="{815D92F3-6CC4-4225-9A76-C629D21D7EAB}" name="StoreResponseVariables" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{04967956-35B1-4A68-866E-3ACD6FB9209E}" name="Csvson" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1528,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87A57E5-F5BD-4861-8936-9E28488C0E70}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,7 +1595,7 @@
         <v>48</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="90" x14ac:dyDescent="0.25">
@@ -1612,7 +1612,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>10</v>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>24</v>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -1788,7 +1788,7 @@
         <v>27</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>34</v>
@@ -1856,20 +1856,20 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1895,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558B51E2-E984-41DF-9C0A-F557E24A35FA}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1962,7 +1962,7 @@
         <v>48</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>24</v>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="N3" s="9"/>
       <c r="O3" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -2114,7 +2114,7 @@
         <v>27</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="6" t="s">
@@ -2153,7 +2153,7 @@
         <v>27</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>45</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="8" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>51</v>
@@ -2214,24 +2214,24 @@
         <v>9</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="22"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L8" s="19"/>
       <c r="M8" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N8" s="23"/>
     </row>

--- a/workflow-rest/src/test/resources/css/customer-self-service-with-db.xlsx
+++ b/workflow-rest/src/test/resources/css/customer-self-service-with-db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\2022\feb-release\microservices-lowcode-testautomation\workflow-rest\src\test\resources\css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A4B1BB-4496-47B4-B019-9F31D3E4DC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928D00BB-F291-4AEF-86F9-926BE8A8BA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="77">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>REST</t>
-  </si>
-  <si>
-    <t>css</t>
   </si>
   <si>
     <t>http://34.66.48.215:8080/auth</t>
@@ -176,9 +173,6 @@
     <t>quoteId=id</t>
   </si>
   <si>
-    <t>quote</t>
-  </si>
-  <si>
     <t>{
     "status": "QUOTE_ACCEPTED" 
 }</t>
@@ -248,41 +242,13 @@
     <t>SELECT</t>
   </si>
   <si>
+    <t>Read Quote information</t>
+  </si>
+  <si>
     <t>select iqr.id, iq.insurance_premium_amount, iq.insurance_premium_currency, iq.policy_limit_amount from insurancequotes iq INNER JOIN insurancequoterequests iqr on iq.id = iqr.insurance_quote_id and iqr.id  =  [quoteId]</t>
   </si>
   <si>
     <t>select iqr.id, iq.insurance_premium_amount, iq.insurance_premium_currency, iq.policy_limit_amount from insurancequotes iq INNER JOIN insurancequoterequests iqr on iq.id = iqr.insurance_quote_id and iqr.id  =  [rejectQuoteId]</t>
-  </si>
-  <si>
-    <t>expiryDate=SUBSTITUTE(TEXT(NOW()+365, "yyyy-mm-dd HH:mm:ss"), " ", "T");startDate=TEXT(TODAY(),"yyyy-mm-dd")</t>
-  </si>
-  <si>
-    <t>EvaluateFunctionVariables</t>
-  </si>
-  <si>
-    <t>{
-    "status": "QUOTE_RECEIVED",
-    "expirationDate": "[expiryDate].000Z",
-    "insurancePremium": {
-        "amount": 500,
-        "currency": "CHF"
-    },
-    "policyLimit": {
-        "amount": 50000,
-        "currency": "CHF"
-    }
-}</t>
-  </si>
-  <si>
-    <t>as a insurance user;login;content type;login information;logging in using;user email information;</t>
-  </si>
-  <si>
-    <t>Read information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-id,insurance_premium_amount, insurance_premium_currency, policy_limit_amount
-i~[quoteId],d~500.00,CHF,d~50000.00</t>
   </si>
   <si>
     <t>{
@@ -303,7 +269,7 @@
         }
     },
     "insuranceOptions": {
-        "startDate": "[startDate]",
+        "startDate": "2021-09-20",
         "insuranceType": "Life Insurance",
         "deductible": {
             "amount": 500,
@@ -311,6 +277,66 @@
         }
     }
 }</t>
+  </si>
+  <si>
+    <t>expiryDate=SUBSTITUTE(TEXT(NOW()+365, "yyyy-mm-dd HH:mm:ss"), " ", "T");startDate=TEXT(TODAY(),"yyyy-mm-dd")</t>
+  </si>
+  <si>
+    <t>EvaluateFunctionVariables</t>
+  </si>
+  <si>
+    <t>{
+    "status": "QUOTE_RECEIVED",
+    "expirationDate": "[expiryDate].000Z",
+    "insurancePremium": {
+        "amount": 500,
+        "currency": "CHF"
+    },
+    "policyLimit": {
+        "amount": 50000,
+        "currency": "CHF"
+    }
+}</t>
+  </si>
+  <si>
+    <t>id,insurance_premium_amount, insurance_premium_currency, policy_limit_amount
+i~[quoteId],d~500.00,CHF,d~50000.00</t>
+  </si>
+  <si>
+    <t>cssdb</t>
+  </si>
+  <si>
+    <t>cssapi</t>
+  </si>
+  <si>
+    <t>quoteapi</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @dynamic-date @dynamic-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @pass_dynamic_variables @workflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  @token @okta @store-response @variable @password @sceret @workflow  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  @store_response @workflow @create_response_variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @workflow @dynamic_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @json_Array @json_path</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @sql_select @sql_validate @store_sql_response</t>
+  </si>
+  <si>
+    <t>as a insurance user;login;content type;login information;logging in using;user email information;</t>
   </si>
 </sst>
 </file>
@@ -382,7 +408,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -501,68 +527,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -583,15 +555,23 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -611,7 +591,9 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -621,125 +603,261 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -751,71 +869,15 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -871,7 +933,7 @@
           <bgColor theme="4" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -880,6 +942,12 @@
         </right>
         <top/>
         <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1214,16 +1282,16 @@
     <tableColumn id="2" xr3:uid="{464049FF-A241-416D-81E2-D042C77E613D}" name="Type" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{41CFEFB5-53E0-4032-A5D9-1D5CD83C9088}" name="Resource" dataDxfId="11"/>
     <tableColumn id="4" xr3:uid="{68FA4253-D22C-4F9E-9642-1CE7DA46F6CD}" name="TestCaseNameDesc" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{4F883B81-805A-43C8-B95E-777D529346FB}" name="StepInfo" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{38DFC232-AD32-4518-BBE9-0E81FA65D158}" name="URL" dataDxfId="8" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{5E0D29DA-C437-477D-80B1-084D6FFDA7D0}" name="Action" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{D521624D-A30C-4903-8753-308DB96CC468}" name="ContentType" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{7ABEA6AA-5DB7-4844-8FE7-5BAA2D97A021}" name="StatusCode" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{CEDD7D6B-A15B-4573-AE56-06BD0C005478}" name="RequestHeaders" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{A354B51F-EA84-4362-AAF3-573124DE42F7}" name="RequestContent" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{231F76A7-ADF1-4065-9B23-160CE53A174D}" name="ResponseByFields" dataDxfId="2" dataCellStyle="Hyperlink"/>
-    <tableColumn id="11" xr3:uid="{815D92F3-6CC4-4225-9A76-C629D21D7EAB}" name="StoreResponseVariables" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{04967956-35B1-4A68-866E-3ACD6FB9209E}" name="Csvson" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{38DFC232-AD32-4518-BBE9-0E81FA65D158}" name="URL" dataDxfId="9" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" xr3:uid="{5E0D29DA-C437-477D-80B1-084D6FFDA7D0}" name="Action" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{D521624D-A30C-4903-8753-308DB96CC468}" name="ContentType" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{7ABEA6AA-5DB7-4844-8FE7-5BAA2D97A021}" name="StatusCode" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{CEDD7D6B-A15B-4573-AE56-06BD0C005478}" name="RequestHeaders" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{16923955-BB62-4B84-A283-EB28AA3D7263}" name="StepInfo" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{A354B51F-EA84-4362-AAF3-573124DE42F7}" name="RequestContent" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{231F76A7-ADF1-4065-9B23-160CE53A174D}" name="ResponseByFields" dataDxfId="3" dataCellStyle="Hyperlink"/>
+    <tableColumn id="11" xr3:uid="{815D92F3-6CC4-4225-9A76-C629D21D7EAB}" name="StoreResponseVariables" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{04967956-35B1-4A68-866E-3ACD6FB9209E}" name="Csvson" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1526,10 +1594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87A57E5-F5BD-4861-8936-9E28488C0E70}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView topLeftCell="H7" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,327 +1617,352 @@
     <col min="13" max="13" width="39.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="88.85546875" customWidth="1"/>
     <col min="15" max="15" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.42578125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4">
+        <v>200</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4">
+        <v>200</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="4">
+        <v>200</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="390" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="4">
+        <v>200</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="4">
+        <v>200</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="4">
+        <v>200</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="B8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="6">
-        <v>200</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="9"/>
-    </row>
-    <row r="3" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="6">
-        <v>200</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="6">
-        <v>200</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="9"/>
-    </row>
-    <row r="5" spans="1:15" ht="390" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="6">
-        <v>200</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="9"/>
-    </row>
-    <row r="6" spans="1:15" ht="180" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="6">
-        <v>200</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="9"/>
-    </row>
-    <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="6">
-        <v>200</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" s="9"/>
-    </row>
-    <row r="8" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>66</v>
+      <c r="P8" s="24" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1893,10 +1986,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558B51E2-E984-41DF-9C0A-F557E24A35FA}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,346 +1998,374 @@
     <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="70.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" customWidth="1"/>
     <col min="11" max="11" width="54.5703125" customWidth="1"/>
     <col min="12" max="12" width="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="35" customWidth="1"/>
     <col min="15" max="15" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.42578125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="12">
+        <v>200</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="12">
+        <v>200</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>62</v>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="4" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
+      <c r="C4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="12">
+        <v>200</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="390" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="6">
+      <c r="H5" s="12">
         <v>200</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="I5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="M5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="12">
+        <v>200</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="12">
+        <v>200</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="23"/>
+      <c r="P7" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-    </row>
-    <row r="3" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="6">
-        <v>200</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="6">
-        <v>200</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-    </row>
-    <row r="5" spans="1:15" ht="390" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="6">
-        <v>200</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-    </row>
-    <row r="6" spans="1:15" ht="180" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="6">
-        <v>200</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-    </row>
-    <row r="7" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="6">
-        <v>200</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" s="9"/>
-    </row>
-    <row r="8" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="F8" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" s="23"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="22"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="24" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{56278878-0DDC-4613-A366-2D690694DF89}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{44B29053-9940-4EAF-8AF2-5A853CA0097E}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{56278878-0DDC-4613-A366-2D690694DF89}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{44B29053-9940-4EAF-8AF2-5A853CA0097E}"/>
     <hyperlink ref="L3" r:id="rId3" display="email=admin@example.com" xr:uid="{924C8EEF-8216-4237-990F-0F5500A53827}"/>
-    <hyperlink ref="F4" r:id="rId4" xr:uid="{E21BD94E-4C02-4B13-BFB8-24DF671FBC4B}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{E21BD94E-4C02-4B13-BFB8-24DF671FBC4B}"/>
     <hyperlink ref="L2" r:id="rId5" display="email=admin@example.com" xr:uid="{2AC9B76B-9478-4CCC-B9EE-AECB42C021D8}"/>
-    <hyperlink ref="F5" r:id="rId6" xr:uid="{9FD1DDE3-0C92-4BE4-9241-79DC041815AC}"/>
-    <hyperlink ref="F6" r:id="rId7" xr:uid="{5F09E6C4-56C4-4CC9-BF31-72583E111233}"/>
-    <hyperlink ref="F7" r:id="rId8" xr:uid="{BB9ACE82-6D2D-401D-AEDC-761999503176}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{9FD1DDE3-0C92-4BE4-9241-79DC041815AC}"/>
+    <hyperlink ref="E6" r:id="rId7" xr:uid="{5F09E6C4-56C4-4CC9-BF31-72583E111233}"/>
+    <hyperlink ref="E7" r:id="rId8" xr:uid="{BB9ACE82-6D2D-401D-AEDC-761999503176}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
